--- a/NCM+NCACY25_0.5_1.xlsx_fitting_results.xlsx
+++ b/NCM+NCACY25_0.5_1.xlsx_fitting_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>W</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,31 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01204106806114651</v>
+        <v>0.01010989249574724</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003316023471504873</v>
+        <v>0.002643206913057788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2718413430953242</v>
+        <v>0.3192199409495288</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9273122917787399</v>
+        <v>0.999999999999874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005000000000000001</v>
+        <v>0.04338823631405217</v>
       </c>
       <c r="G2" t="n">
-        <v>9.759817338634429</v>
+        <v>299.9997202250269</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6149428134926422</v>
+        <v>3.636928976462399e-23</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002687785057988327</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.823173673722632e-07</v>
+        <v>0.002517490413470292</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01246284021636506</v>
+        <v>0.01082370327207441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003987416473156731</v>
+        <v>0.00665057691290396</v>
       </c>
       <c r="D3" t="n">
-        <v>5.690324690223615</v>
+        <v>5.911456555382117</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.7225270122951882</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003928946678035818</v>
+        <v>0.05781812220811839</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9518443146706353</v>
+        <v>299.9999768611358</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7654249982084534</v>
+        <v>2.768259255490592e-19</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00368572648824793</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.899402453647677e-07</v>
+        <v>0.003578171669461741</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01260366013680852</v>
+        <v>0.01364938809285886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007914498864838582</v>
+        <v>0.008085460268914364</v>
       </c>
       <c r="D4" t="n">
-        <v>5.826387123017125</v>
+        <v>6.211824325758688</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9835150795315147</v>
+        <v>0.9688082517275474</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004500884191331157</v>
+        <v>0.003448198215822056</v>
       </c>
       <c r="G4" t="n">
-        <v>1.759456632944391</v>
+        <v>2.554462039506411</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6782477066738198</v>
+        <v>0.7338174580373219</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004063899819836451</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.910214676057318e-07</v>
+        <v>0.001974157272917146</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0128576804848615</v>
+        <v>0.01395686315829993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01392702974805515</v>
+        <v>0.01431132996697999</v>
       </c>
       <c r="D5" t="n">
-        <v>5.835599872590804</v>
+        <v>5.916164582116819</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9353889385435606</v>
+        <v>0.922631311906735</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004307450892123926</v>
+        <v>0.002943855743503025</v>
       </c>
       <c r="G5" t="n">
-        <v>1.608221237010205</v>
+        <v>1.610138517704386</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6850615106450851</v>
+        <v>0.8032146944666612</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004392628817025932</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.893037621147771e-07</v>
+        <v>0.002171327903298432</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01309095731279543</v>
+        <v>0.01415509697524245</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02044838144981798</v>
+        <v>0.0205595082686997</v>
       </c>
       <c r="D6" t="n">
-        <v>5.659923126434296</v>
+        <v>5.660321068962727</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9278406100951937</v>
+        <v>0.9263901545997177</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004240794848234289</v>
+        <v>0.003054445902530906</v>
       </c>
       <c r="G6" t="n">
-        <v>1.423562578504589</v>
+        <v>1.691924980923751</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6975669544988462</v>
+        <v>0.7888586140897571</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004834238340381819</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.891814330933378e-07</v>
+        <v>0.002411575703939301</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01320042980048195</v>
+        <v>0.01435885470212589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0283923745951066</v>
+        <v>0.02910090796845124</v>
       </c>
       <c r="D7" t="n">
-        <v>5.51928237070612</v>
+        <v>5.572860122230434</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9365612628721257</v>
+        <v>0.9232940950276984</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004718490117315109</v>
+        <v>0.003191747728419063</v>
       </c>
       <c r="G7" t="n">
-        <v>1.833200008606685</v>
+        <v>1.721937152306047</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6565709581342962</v>
+        <v>0.7772760179476639</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005428583776230711</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.86930548874908e-07</v>
+        <v>0.002602788224785147</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01346746759516751</v>
+        <v>0.01457756213480412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03885987344681038</v>
+        <v>0.03868793579302727</v>
       </c>
       <c r="D8" t="n">
-        <v>5.729490334598853</v>
+        <v>5.704874518668718</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9073966398109781</v>
+        <v>0.9106765327674304</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004325298552475026</v>
+        <v>0.003174431788720569</v>
       </c>
       <c r="G8" t="n">
-        <v>1.221549425315605</v>
+        <v>1.681911282272827</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7042158859305175</v>
+        <v>0.7754544584354274</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005817528249543686</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.869289330207586e-07</v>
+        <v>0.002947578658808653</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01363610643772501</v>
+        <v>0.01472239941260087</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05178223764725923</v>
+        <v>0.05182579011164729</v>
       </c>
       <c r="D9" t="n">
-        <v>5.67866115284033</v>
+        <v>5.66740539679416</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9070115898068912</v>
+        <v>0.9067901217660024</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004663585472650925</v>
+        <v>0.003446304876803713</v>
       </c>
       <c r="G9" t="n">
-        <v>1.226048318341994</v>
+        <v>1.451019531723609</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6890631179406891</v>
+        <v>0.7680428608970525</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006206362650069002</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.675308720541726e-07</v>
+        <v>0.003118899188088695</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01392594896031041</v>
+        <v>0.002299025994007061</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06601165299499244</v>
+        <v>0.06269959994976092</v>
       </c>
       <c r="D10" t="n">
-        <v>5.658798139738285</v>
+        <v>5.879334907724852</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8988707518277174</v>
+        <v>0.9165659334770303</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004524703053807405</v>
+        <v>0.02916661967966437</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8838618599508743</v>
+        <v>19.08964940088982</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7316272732824366</v>
+        <v>0.08871939927039764</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006624645898355881</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.602470998584066e-07</v>
+        <v>0.004464554009989354</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +766,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01386131576577183</v>
+        <v>0.01531541029852232</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08060921563679091</v>
+        <v>0.08065727284761938</v>
       </c>
       <c r="D11" t="n">
-        <v>5.657833213002756</v>
+        <v>5.641797592359999</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9054851616680347</v>
+        <v>0.9047877538298157</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005209055005505856</v>
+        <v>0.00351524110143033</v>
       </c>
       <c r="G11" t="n">
-        <v>1.217139147538854</v>
+        <v>1.082370852212218</v>
       </c>
       <c r="H11" t="n">
-        <v>0.66575489332439</v>
+        <v>0.8063143873046508</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00699525245873249</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.679992757395672e-07</v>
+        <v>0.003557305522687305</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +797,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01046278831301603</v>
+        <v>0.015284225401785</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09274158832251936</v>
+        <v>0.0952131245766417</v>
       </c>
       <c r="D12" t="n">
-        <v>5.883121056337773</v>
+        <v>5.751687765444394</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9192089557757576</v>
+        <v>0.9094048776156545</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01251463379374633</v>
+        <v>0.004397663742754503</v>
       </c>
       <c r="G12" t="n">
-        <v>9.999999999999925</v>
+        <v>2.182863229244836</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2698706716402306</v>
+        <v>0.6798093828255353</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01019913398031219</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.976121288004547e-07</v>
+        <v>0.003960310838155299</v>
       </c>
     </row>
     <row r="13">
@@ -866,31 +828,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01182307862797163</v>
+        <v>0.01553747895788798</v>
       </c>
       <c r="C13" t="n">
-        <v>0.108984031112195</v>
+        <v>0.111147623668229</v>
       </c>
       <c r="D13" t="n">
-        <v>5.880035056604063</v>
+        <v>5.761683496431314</v>
       </c>
       <c r="E13" t="n">
-        <v>0.918614473912761</v>
+        <v>0.9112817854335293</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0113426952928626</v>
+        <v>0.004635135542167495</v>
       </c>
       <c r="G13" t="n">
-        <v>9.996734945232838</v>
+        <v>2.122946637190837</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3016815637113798</v>
+        <v>0.6763794603733591</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01043313579170029</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.8997189502458e-07</v>
+        <v>0.004172709662186433</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +859,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.06537797587006e-39</v>
+        <v>4.848365116775072e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09271264152357266</v>
+        <v>0.1232057246871054</v>
       </c>
       <c r="D14" t="n">
-        <v>6.94222222887988</v>
+        <v>5.994671349808799</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9220605186774995</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02438830792933523</v>
+        <v>0.1778356597795424</v>
       </c>
       <c r="G14" t="n">
-        <v>9.999999999999998</v>
+        <v>36.13263419337557</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07211796417839271</v>
+        <v>0.04552158402324596</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06008838040247415</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.833330839096773e-07</v>
+        <v>0.007809600683840152</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +890,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.450774737698417e-34</v>
+        <v>0.01652596127770102</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1095213666382216</v>
+        <v>0.1479998337622929</v>
       </c>
       <c r="D15" t="n">
-        <v>7.073910587368748</v>
+        <v>5.769461566182492</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9830426438884022</v>
+        <v>0.8973712234388168</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02473029285597085</v>
+        <v>0.004030900565051139</v>
       </c>
       <c r="G15" t="n">
-        <v>9.999999999999998</v>
+        <v>0.7884407511359053</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07202366025055937</v>
+        <v>0.8267750157013607</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06174107711057841</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.719348663466118e-07</v>
+        <v>0.004125462796863369</v>
       </c>
     </row>
     <row r="16">
@@ -968,31 +921,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0137984807883079</v>
+        <v>0.01527025523324332</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1622744710368903</v>
+        <v>0.008405267993724035</v>
       </c>
       <c r="D16" t="n">
-        <v>5.822107936659889</v>
+        <v>6.362965275941478</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9088407915262399</v>
+        <v>0.4529006074927999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.008976348734620752</v>
+        <v>0.1663062051647967</v>
       </c>
       <c r="G16" t="n">
-        <v>2.649299830193546</v>
+        <v>5.594090038517847</v>
       </c>
       <c r="H16" t="n">
-        <v>0.490775910742609</v>
+        <v>0.9085642070746701</v>
       </c>
       <c r="I16" t="n">
-        <v>0.008936120105408707</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.898306074676598e-07</v>
+        <v>0.003864388780679096</v>
       </c>
     </row>
     <row r="17">
@@ -1002,31 +952,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01482770838962757</v>
+        <v>0.01692989302592442</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1822122816606076</v>
+        <v>0.1843861284737217</v>
       </c>
       <c r="D17" t="n">
-        <v>5.819784406265089</v>
+        <v>5.789507906325231</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9031135528635555</v>
+        <v>0.8973883196423826</v>
       </c>
       <c r="F17" t="n">
-        <v>0.007822438588408826</v>
+        <v>0.005154371301247101</v>
       </c>
       <c r="G17" t="n">
-        <v>1.506933671197626</v>
+        <v>1.065331767575155</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5855492048156281</v>
+        <v>0.752394376838935</v>
       </c>
       <c r="I17" t="n">
-        <v>0.008479858183016777</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.722602286143995e-07</v>
+        <v>0.004042266614579195</v>
       </c>
     </row>
     <row r="18">
@@ -1036,31 +983,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01405312829230287</v>
+        <v>9.224968248426914e-15</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1924271355719632</v>
+        <v>0.1894947728740873</v>
       </c>
       <c r="D18" t="n">
-        <v>5.918488734023246</v>
+        <v>6.096162775641068</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9166549750472318</v>
+        <v>0.9202490757042877</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01053500966276713</v>
+        <v>0.1678782890279488</v>
       </c>
       <c r="G18" t="n">
-        <v>3.131710530080885</v>
+        <v>31.31630582005413</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4583162410790815</v>
+        <v>0.05055193549869827</v>
       </c>
       <c r="I18" t="n">
-        <v>0.009814157499212514</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.765684946155984e-07</v>
+        <v>0.008362442792366802</v>
       </c>
     </row>
     <row r="19">
@@ -1070,31 +1014,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01350793894110094</v>
+        <v>3.6529608286327e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2111351003160747</v>
+        <v>0.2077528096434097</v>
       </c>
       <c r="D19" t="n">
-        <v>5.93060335517478</v>
+        <v>6.102140542460534</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9147143593020124</v>
+        <v>0.9197308664459375</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01201360646734742</v>
+        <v>0.1324320136576118</v>
       </c>
       <c r="G19" t="n">
-        <v>3.205811469933418</v>
+        <v>28.5398196582231</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4248548406453115</v>
+        <v>0.05432434096064631</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01034394670037548</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.823319938402593e-07</v>
+        <v>0.00848128136982338</v>
       </c>
     </row>
     <row r="20">
@@ -1104,31 +1045,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01538019119557263</v>
+        <v>0.01774737062211197</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2328873869924649</v>
+        <v>0.2305409278186977</v>
       </c>
       <c r="D20" t="n">
-        <v>5.929668674030101</v>
+        <v>5.946737398718176</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8994806266938312</v>
+        <v>0.9020432811426705</v>
       </c>
       <c r="F20" t="n">
-        <v>0.008696178084568941</v>
+        <v>0.006023513755977148</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9847931465602583</v>
+        <v>0.9110812313857855</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6057827971725864</v>
+        <v>0.7385654393257632</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00881830996057068</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.890499559133274e-07</v>
+        <v>0.004842747701974771</v>
       </c>
     </row>
     <row r="21">
@@ -1138,31 +1076,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0162358785983332</v>
+        <v>0.01753200199965826</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2426350625123099</v>
+        <v>0.2399638281472714</v>
       </c>
       <c r="D21" t="n">
-        <v>5.99168103476147</v>
+        <v>6.022848711056653</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9040641150005634</v>
+        <v>0.9077574794880571</v>
       </c>
       <c r="F21" t="n">
-        <v>0.008891618371262504</v>
+        <v>0.007594137221905881</v>
       </c>
       <c r="G21" t="n">
-        <v>1.076890789884809</v>
+        <v>1.627267728447693</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6163117105821661</v>
+        <v>0.6238400326136673</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01004991197569827</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.677845485635142e-07</v>
+        <v>0.00539291045537546</v>
       </c>
     </row>
     <row r="22">
@@ -1172,31 +1107,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01599088233364135</v>
+        <v>0.01821977480015482</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2650935530556482</v>
+        <v>0.2652018569747582</v>
       </c>
       <c r="D22" t="n">
-        <v>5.947332689172856</v>
+        <v>5.944199638954032</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8997082915344471</v>
+        <v>0.8981125006400097</v>
       </c>
       <c r="F22" t="n">
-        <v>0.009776848416467096</v>
+        <v>0.007132852980890897</v>
       </c>
       <c r="G22" t="n">
-        <v>1.063822599247386</v>
+        <v>1.005274816468471</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5918749843622843</v>
+        <v>0.6942117891121174</v>
       </c>
       <c r="I22" t="n">
-        <v>0.008947912027265883</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.606991007842141e-07</v>
+        <v>0.004662346395413798</v>
       </c>
     </row>
   </sheetData>
